--- a/data/trans_media/Q02G_LAB-Provincia-trans_media.xlsx
+++ b/data/trans_media/Q02G_LAB-Provincia-trans_media.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,94; 12,73</t>
+          <t>4,37; 12,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,4; 6,13</t>
+          <t>3,33; 6,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,9; 7,11</t>
+          <t>3,88; 7,04</t>
         </is>
       </c>
     </row>
@@ -719,7 +719,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,4; 6,2</t>
+          <t>2,34; 6,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,71; 6,0</t>
+          <t>3,8; 6,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -739,12 +739,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,6; 5,6</t>
+          <t>3,58; 5,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,37; 5,9</t>
+          <t>2,37; 6,11</t>
         </is>
       </c>
     </row>
@@ -799,7 +799,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,0; 4,67</t>
+          <t>2,0; 5,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -809,22 +809,22 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,82; 4,34</t>
+          <t>1,0; 4,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,81; 5,42</t>
+          <t>1,8; 5,48</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,51; 4,09</t>
+          <t>1,63; 4,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,66; 4,66</t>
+          <t>1,57; 4,46</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,86; 6,24</t>
+          <t>2,84; 6,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,72; 3,79</t>
+          <t>1,71; 3,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,69; 6,15</t>
+          <t>3,66; 6,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,05; 7,93</t>
+          <t>3,04; 8,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,63; 5,61</t>
+          <t>3,62; 5,68</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,81; 6,42</t>
+          <t>2,84; 6,61</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,22 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,84; 4,76</t>
+          <t>1,84; 5,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,07; 5,93</t>
+          <t>2,11; 5,96</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,99; 4,27</t>
+          <t>1,98; 3,89</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,39; 5,92</t>
+          <t>2,29; 5,84</t>
         </is>
       </c>
     </row>
@@ -1044,27 +1044,27 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,43; 5,94</t>
+          <t>2,42; 5,92</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,79; 4,2</t>
+          <t>2,78; 4,15</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,3; 6,73</t>
+          <t>3,25; 6,66</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,73; 4,1</t>
+          <t>2,72; 4,04</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,33; 5,62</t>
+          <t>3,26; 5,62</t>
         </is>
       </c>
     </row>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,41; 7,03</t>
+          <t>2,53; 7,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1129,22 +1129,22 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,02; 4,27</t>
+          <t>1,99; 4,11</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,63; 7,3</t>
+          <t>2,64; 7,53</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,48; 4,75</t>
+          <t>2,49; 4,89</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,35; 5,94</t>
+          <t>2,5; 6,45</t>
         </is>
       </c>
     </row>
@@ -1199,32 +1199,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,82; 6,39</t>
+          <t>1,9; 6,43</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,17; 3,12</t>
+          <t>1,21; 3,03</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,74; 6,36</t>
+          <t>2,66; 6,19</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,46; 3,9</t>
+          <t>2,38; 3,78</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2,71; 5,63</t>
+          <t>2,82; 5,5</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2,25; 3,47</t>
+          <t>2,22; 3,52</t>
         </is>
       </c>
     </row>
@@ -1279,32 +1279,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>3,04; 4,71</t>
+          <t>3,07; 4,72</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>2,74; 4,93</t>
+          <t>2,77; 4,91</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>3,55; 4,65</t>
+          <t>3,5; 4,69</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>3,45; 4,8</t>
+          <t>3,51; 4,83</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>3,49; 4,43</t>
+          <t>3,56; 4,47</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>3,46; 4,53</t>
+          <t>3,44; 4,56</t>
         </is>
       </c>
     </row>
